--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>822.1763898425688</v>
+        <v>1095.520839222413</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.00599980354309082</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.84392883905826</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.08514149930804</v>
+        <v>8.951113551215126</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.237602502814244</v>
+        <v>8.926455063461642</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>744.6000000000045</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58000000000001</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>2.318900601578257</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.66154480832267</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1116,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>202.88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>217.105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>220.47</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>229.37</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.235</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>258.875</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>275.5050000000007</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>277.4750000000007</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>283.2300000000008</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>277.215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>122.3699999999998</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134.135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>125.8349999999998</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.895</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.965</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>258.875</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>275.5050000000007</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>277.4750000000007</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>283.2300000000008</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>277.215</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>58.875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>75.50500000000073</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>77.4750000000007</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>83.23000000000076</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>77.215</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
